--- a/friend_recommend/Following.xlsx
+++ b/friend_recommend/Following.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\rapa\F_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SORHIVE\AI-friendfeed_recommend\friend_recommend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C740DB7-B45E-480B-A8F7-84E15C1A6105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90C9BAA-ADAC-498D-ABBE-FC8DFA2B097E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{012984F6-13D6-4B12-9673-0504787B5E63}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{012984F6-13D6-4B12-9673-0504787B5E63}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="23">
   <si>
     <t>Andrew</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,14 +63,6 @@
   </si>
   <si>
     <t>Suezan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Following</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>View</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -105,7 +97,35 @@
     <t>Alice</t>
   </si>
   <si>
-    <t>UserName</t>
+    <t>Guest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Feed_view_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lifing_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoomIn_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuestBook_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chatting</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -487,38 +507,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D197A23-C5EA-4BA9-8002-5934B3EF249E}">
-  <dimension ref="A1:D121"/>
+  <dimension ref="A1:I121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="8.796875" style="1"/>
-    <col min="9" max="9" width="10.8984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="C2" s="3">
         <v>96</v>
@@ -526,10 +561,25 @@
       <c r="D2" s="3">
         <v>55</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E2">
+        <v>24</v>
+      </c>
+      <c r="F2">
+        <v>148</v>
+      </c>
+      <c r="G2">
+        <v>100</v>
+      </c>
+      <c r="H2">
+        <v>25</v>
+      </c>
+      <c r="I2">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -540,10 +590,25 @@
       <c r="D3" s="3">
         <v>468</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E3">
+        <v>16</v>
+      </c>
+      <c r="F3">
+        <v>965</v>
+      </c>
+      <c r="G3">
+        <v>89</v>
+      </c>
+      <c r="H3">
+        <v>7</v>
+      </c>
+      <c r="I3">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
@@ -554,10 +619,25 @@
       <c r="D4" s="3">
         <v>517</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E4">
+        <v>9</v>
+      </c>
+      <c r="F4">
+        <v>647</v>
+      </c>
+      <c r="G4">
+        <v>80</v>
+      </c>
+      <c r="H4">
+        <v>34</v>
+      </c>
+      <c r="I4">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
@@ -568,13 +648,28 @@
       <c r="D5" s="3">
         <v>504</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E5">
+        <v>25</v>
+      </c>
+      <c r="F5">
+        <v>410</v>
+      </c>
+      <c r="G5">
+        <v>162</v>
+      </c>
+      <c r="H5">
+        <v>30</v>
+      </c>
+      <c r="I5">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" s="3">
         <v>96</v>
@@ -582,13 +677,28 @@
       <c r="D6" s="3">
         <v>98</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E6">
+        <v>15</v>
+      </c>
+      <c r="F6">
+        <v>797</v>
+      </c>
+      <c r="G6">
+        <v>169</v>
+      </c>
+      <c r="H6">
+        <v>21</v>
+      </c>
+      <c r="I6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" s="3">
         <v>23</v>
@@ -596,10 +706,25 @@
       <c r="D7" s="3">
         <v>227</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E7">
+        <v>77</v>
+      </c>
+      <c r="F7">
+        <v>681</v>
+      </c>
+      <c r="G7">
+        <v>23</v>
+      </c>
+      <c r="H7">
+        <v>37</v>
+      </c>
+      <c r="I7">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
@@ -610,13 +735,28 @@
       <c r="D8" s="3">
         <v>954</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E8">
+        <v>63</v>
+      </c>
+      <c r="F8">
+        <v>668</v>
+      </c>
+      <c r="G8">
+        <v>176</v>
+      </c>
+      <c r="H8">
+        <v>24</v>
+      </c>
+      <c r="I8">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C9" s="3">
         <v>205</v>
@@ -624,13 +764,28 @@
       <c r="D9" s="3">
         <v>906</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E9">
+        <v>53</v>
+      </c>
+      <c r="F9">
+        <v>639</v>
+      </c>
+      <c r="G9">
+        <v>139</v>
+      </c>
+      <c r="H9">
+        <v>36</v>
+      </c>
+      <c r="I9">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C10" s="3">
         <v>781</v>
@@ -638,10 +793,25 @@
       <c r="D10" s="3">
         <v>123</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>805</v>
+      </c>
+      <c r="G10">
+        <v>71</v>
+      </c>
+      <c r="H10">
+        <v>13</v>
+      </c>
+      <c r="I10">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
@@ -652,10 +822,25 @@
       <c r="D11" s="3">
         <v>675</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E11">
+        <v>72</v>
+      </c>
+      <c r="F11">
+        <v>883</v>
+      </c>
+      <c r="G11">
+        <v>116</v>
+      </c>
+      <c r="H11">
+        <v>27</v>
+      </c>
+      <c r="I11">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>2</v>
@@ -666,10 +851,25 @@
       <c r="D12" s="3">
         <v>514</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E12">
+        <v>74</v>
+      </c>
+      <c r="F12">
+        <v>825</v>
+      </c>
+      <c r="G12">
+        <v>193</v>
+      </c>
+      <c r="H12">
+        <v>35</v>
+      </c>
+      <c r="I12">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>3</v>
@@ -680,13 +880,28 @@
       <c r="D13" s="3">
         <v>339</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E13">
+        <v>8</v>
+      </c>
+      <c r="F13">
+        <v>573</v>
+      </c>
+      <c r="G13">
+        <v>55</v>
+      </c>
+      <c r="H13">
+        <v>45</v>
+      </c>
+      <c r="I13">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="C14" s="3">
         <v>510</v>
@@ -694,13 +909,28 @@
       <c r="D14" s="3">
         <v>186</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E14">
+        <v>36</v>
+      </c>
+      <c r="F14">
+        <v>574</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>42</v>
+      </c>
+      <c r="I14">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C15" s="3">
         <v>138</v>
@@ -708,10 +938,25 @@
       <c r="D15" s="3">
         <v>867</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E15">
+        <v>7</v>
+      </c>
+      <c r="F15">
+        <v>312</v>
+      </c>
+      <c r="G15">
+        <v>178</v>
+      </c>
+      <c r="H15">
+        <v>20</v>
+      </c>
+      <c r="I15">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>5</v>
@@ -722,13 +967,28 @@
       <c r="D16" s="3">
         <v>432</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E16">
+        <v>53</v>
+      </c>
+      <c r="F16">
+        <v>569</v>
+      </c>
+      <c r="G16">
+        <v>72</v>
+      </c>
+      <c r="H16">
+        <v>13</v>
+      </c>
+      <c r="I16">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C17" s="3">
         <v>545</v>
@@ -736,13 +996,28 @@
       <c r="D17" s="3">
         <v>964</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E17">
+        <v>81</v>
+      </c>
+      <c r="F17">
+        <v>814</v>
+      </c>
+      <c r="G17">
+        <v>85</v>
+      </c>
+      <c r="H17">
+        <v>10</v>
+      </c>
+      <c r="I17">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C18" s="3">
         <v>259</v>
@@ -750,8 +1025,23 @@
       <c r="D18" s="3">
         <v>122</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E18">
+        <v>48</v>
+      </c>
+      <c r="F18">
+        <v>448</v>
+      </c>
+      <c r="G18">
+        <v>17</v>
+      </c>
+      <c r="H18">
+        <v>13</v>
+      </c>
+      <c r="I18">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -764,13 +1054,28 @@
       <c r="D19" s="3">
         <v>216</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E19">
+        <v>99</v>
+      </c>
+      <c r="F19">
+        <v>597</v>
+      </c>
+      <c r="G19">
+        <v>99</v>
+      </c>
+      <c r="H19">
+        <v>25</v>
+      </c>
+      <c r="I19">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C20" s="3">
         <v>83</v>
@@ -778,8 +1083,23 @@
       <c r="D20" s="3">
         <v>161</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E20">
+        <v>14</v>
+      </c>
+      <c r="F20">
+        <v>441</v>
+      </c>
+      <c r="G20">
+        <v>168</v>
+      </c>
+      <c r="H20">
+        <v>27</v>
+      </c>
+      <c r="I20">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -792,8 +1112,23 @@
       <c r="D21" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E21">
+        <v>20</v>
+      </c>
+      <c r="F21">
+        <v>499</v>
+      </c>
+      <c r="G21">
+        <v>107</v>
+      </c>
+      <c r="H21">
+        <v>5</v>
+      </c>
+      <c r="I21">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -806,8 +1141,23 @@
       <c r="D22" s="3">
         <v>225</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E22">
+        <v>93</v>
+      </c>
+      <c r="F22">
+        <v>852</v>
+      </c>
+      <c r="G22">
+        <v>63</v>
+      </c>
+      <c r="H22">
+        <v>8</v>
+      </c>
+      <c r="I22">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -820,13 +1170,28 @@
       <c r="D23" s="3">
         <v>595</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E23">
+        <v>69</v>
+      </c>
+      <c r="F23">
+        <v>105</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="H23">
+        <v>46</v>
+      </c>
+      <c r="I23">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C24" s="3">
         <v>705</v>
@@ -834,13 +1199,28 @@
       <c r="D24" s="3">
         <v>55</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E24">
+        <v>10</v>
+      </c>
+      <c r="F24">
+        <v>541</v>
+      </c>
+      <c r="G24">
+        <v>140</v>
+      </c>
+      <c r="H24">
+        <v>21</v>
+      </c>
+      <c r="I24">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C25" s="3">
         <v>579</v>
@@ -848,8 +1228,23 @@
       <c r="D25" s="3">
         <v>659</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E25">
+        <v>86</v>
+      </c>
+      <c r="F25">
+        <v>624</v>
+      </c>
+      <c r="G25">
+        <v>162</v>
+      </c>
+      <c r="H25">
+        <v>28</v>
+      </c>
+      <c r="I25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
@@ -862,13 +1257,28 @@
       <c r="D26" s="3">
         <v>986</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E26">
+        <v>17</v>
+      </c>
+      <c r="F26">
+        <v>364</v>
+      </c>
+      <c r="G26">
+        <v>70</v>
+      </c>
+      <c r="H26">
+        <v>8</v>
+      </c>
+      <c r="I26">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C27" s="3">
         <v>135</v>
@@ -876,13 +1286,28 @@
       <c r="D27" s="3">
         <v>482</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E27">
+        <v>43</v>
+      </c>
+      <c r="F27">
+        <v>713</v>
+      </c>
+      <c r="G27">
+        <v>195</v>
+      </c>
+      <c r="H27">
+        <v>10</v>
+      </c>
+      <c r="I27">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C28" s="3">
         <v>934</v>
@@ -890,8 +1315,23 @@
       <c r="D28" s="3">
         <v>369</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E28">
+        <v>76</v>
+      </c>
+      <c r="F28">
+        <v>923</v>
+      </c>
+      <c r="G28">
+        <v>104</v>
+      </c>
+      <c r="H28">
+        <v>10</v>
+      </c>
+      <c r="I28">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>1</v>
       </c>
@@ -904,13 +1344,28 @@
       <c r="D29" s="3">
         <v>869</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E29">
+        <v>24</v>
+      </c>
+      <c r="F29">
+        <v>3</v>
+      </c>
+      <c r="G29">
+        <v>10</v>
+      </c>
+      <c r="H29">
+        <v>36</v>
+      </c>
+      <c r="I29">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C30" s="3">
         <v>582</v>
@@ -918,8 +1373,23 @@
       <c r="D30" s="3">
         <v>528</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E30">
+        <v>19</v>
+      </c>
+      <c r="F30">
+        <v>545</v>
+      </c>
+      <c r="G30">
+        <v>174</v>
+      </c>
+      <c r="H30">
+        <v>29</v>
+      </c>
+      <c r="I30">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
         <v>1</v>
       </c>
@@ -932,13 +1402,28 @@
       <c r="D31" s="3">
         <v>775</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E31">
+        <v>50</v>
+      </c>
+      <c r="F31">
+        <v>72</v>
+      </c>
+      <c r="G31">
+        <v>142</v>
+      </c>
+      <c r="H31">
+        <v>48</v>
+      </c>
+      <c r="I31">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C32" s="3">
         <v>716</v>
@@ -946,13 +1431,28 @@
       <c r="D32" s="3">
         <v>255</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E32">
+        <v>20</v>
+      </c>
+      <c r="F32">
+        <v>854</v>
+      </c>
+      <c r="G32">
+        <v>191</v>
+      </c>
+      <c r="H32">
+        <v>19</v>
+      </c>
+      <c r="I32">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C33" s="3">
         <v>293</v>
@@ -960,8 +1460,23 @@
       <c r="D33" s="3">
         <v>511</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E33">
+        <v>66</v>
+      </c>
+      <c r="F33">
+        <v>306</v>
+      </c>
+      <c r="G33">
+        <v>198</v>
+      </c>
+      <c r="H33">
+        <v>44</v>
+      </c>
+      <c r="I33">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
         <v>1</v>
       </c>
@@ -974,13 +1489,28 @@
       <c r="D34" s="3">
         <v>509</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E34">
+        <v>34</v>
+      </c>
+      <c r="F34">
+        <v>508</v>
+      </c>
+      <c r="G34">
+        <v>86</v>
+      </c>
+      <c r="H34">
+        <v>47</v>
+      </c>
+      <c r="I34">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C35" s="3">
         <v>807</v>
@@ -988,13 +1518,28 @@
       <c r="D35" s="3">
         <v>117</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E35">
+        <v>75</v>
+      </c>
+      <c r="F35">
+        <v>898</v>
+      </c>
+      <c r="G35">
+        <v>138</v>
+      </c>
+      <c r="H35">
+        <v>6</v>
+      </c>
+      <c r="I35">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C36" s="3">
         <v>504</v>
@@ -1002,13 +1547,28 @@
       <c r="D36" s="3">
         <v>254</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E36">
+        <v>5</v>
+      </c>
+      <c r="F36">
+        <v>62</v>
+      </c>
+      <c r="G36">
+        <v>20</v>
+      </c>
+      <c r="H36">
+        <v>5</v>
+      </c>
+      <c r="I36">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C37" s="3">
         <v>690</v>
@@ -1016,8 +1576,23 @@
       <c r="D37" s="3">
         <v>254</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E37">
+        <v>16</v>
+      </c>
+      <c r="F37">
+        <v>473</v>
+      </c>
+      <c r="G37">
+        <v>30</v>
+      </c>
+      <c r="H37">
+        <v>45</v>
+      </c>
+      <c r="I37">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>1</v>
       </c>
@@ -1030,13 +1605,28 @@
       <c r="D38" s="3">
         <v>40</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E38">
+        <v>85</v>
+      </c>
+      <c r="F38">
+        <v>955</v>
+      </c>
+      <c r="G38">
+        <v>56</v>
+      </c>
+      <c r="H38">
+        <v>26</v>
+      </c>
+      <c r="I38">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C39" s="3">
         <v>939</v>
@@ -1044,8 +1634,23 @@
       <c r="D39" s="3">
         <v>474</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E39">
+        <v>35</v>
+      </c>
+      <c r="F39">
+        <v>649</v>
+      </c>
+      <c r="G39">
+        <v>146</v>
+      </c>
+      <c r="H39">
+        <v>44</v>
+      </c>
+      <c r="I39">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
         <v>2</v>
       </c>
@@ -1058,8 +1663,23 @@
       <c r="D40" s="3">
         <v>242</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E40">
+        <v>17</v>
+      </c>
+      <c r="F40">
+        <v>423</v>
+      </c>
+      <c r="G40">
+        <v>130</v>
+      </c>
+      <c r="H40">
+        <v>49</v>
+      </c>
+      <c r="I40">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
         <v>2</v>
       </c>
@@ -1072,8 +1692,23 @@
       <c r="D41" s="3">
         <v>133</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E41">
+        <v>49</v>
+      </c>
+      <c r="F41">
+        <v>945</v>
+      </c>
+      <c r="G41">
+        <v>181</v>
+      </c>
+      <c r="H41">
+        <v>2</v>
+      </c>
+      <c r="I41">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
         <v>2</v>
       </c>
@@ -1086,13 +1721,28 @@
       <c r="D42" s="3">
         <v>206</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E42">
+        <v>44</v>
+      </c>
+      <c r="F42">
+        <v>768</v>
+      </c>
+      <c r="G42">
+        <v>5</v>
+      </c>
+      <c r="H42">
+        <v>26</v>
+      </c>
+      <c r="I42">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C43" s="3">
         <v>287</v>
@@ -1100,13 +1750,28 @@
       <c r="D43" s="3">
         <v>295</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E43">
+        <v>48</v>
+      </c>
+      <c r="F43">
+        <v>657</v>
+      </c>
+      <c r="G43">
+        <v>90</v>
+      </c>
+      <c r="H43">
+        <v>30</v>
+      </c>
+      <c r="I43">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C44" s="3">
         <v>794</v>
@@ -1114,13 +1779,28 @@
       <c r="D44" s="3">
         <v>208</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E44">
+        <v>40</v>
+      </c>
+      <c r="F44">
+        <v>616</v>
+      </c>
+      <c r="G44">
+        <v>102</v>
+      </c>
+      <c r="H44">
+        <v>8</v>
+      </c>
+      <c r="I44">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C45" s="3">
         <v>771</v>
@@ -1128,8 +1808,23 @@
       <c r="D45" s="3">
         <v>417</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E45">
+        <v>92</v>
+      </c>
+      <c r="F45">
+        <v>707</v>
+      </c>
+      <c r="G45">
+        <v>189</v>
+      </c>
+      <c r="H45">
+        <v>29</v>
+      </c>
+      <c r="I45">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
         <v>2</v>
       </c>
@@ -1142,8 +1837,23 @@
       <c r="D46" s="3">
         <v>604</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E46">
+        <v>28</v>
+      </c>
+      <c r="F46">
+        <v>692</v>
+      </c>
+      <c r="G46">
+        <v>49</v>
+      </c>
+      <c r="H46">
+        <v>6</v>
+      </c>
+      <c r="I46">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
         <v>3</v>
       </c>
@@ -1156,13 +1866,28 @@
       <c r="D47" s="3">
         <v>806</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E47">
+        <v>91</v>
+      </c>
+      <c r="F47">
+        <v>824</v>
+      </c>
+      <c r="G47">
+        <v>88</v>
+      </c>
+      <c r="H47">
+        <v>36</v>
+      </c>
+      <c r="I47">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C48" s="3">
         <v>994</v>
@@ -1170,8 +1895,23 @@
       <c r="D48" s="3">
         <v>881</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E48">
+        <v>81</v>
+      </c>
+      <c r="F48">
+        <v>26</v>
+      </c>
+      <c r="G48">
+        <v>85</v>
+      </c>
+      <c r="H48">
+        <v>15</v>
+      </c>
+      <c r="I48">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
         <v>3</v>
       </c>
@@ -1184,8 +1924,23 @@
       <c r="D49" s="3">
         <v>212</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E49">
+        <v>10</v>
+      </c>
+      <c r="F49">
+        <v>996</v>
+      </c>
+      <c r="G49">
+        <v>80</v>
+      </c>
+      <c r="H49">
+        <v>2</v>
+      </c>
+      <c r="I49">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
         <v>3</v>
       </c>
@@ -1198,13 +1953,28 @@
       <c r="D50" s="3">
         <v>728</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E50">
+        <v>31</v>
+      </c>
+      <c r="F50">
+        <v>837</v>
+      </c>
+      <c r="G50">
+        <v>192</v>
+      </c>
+      <c r="H50">
+        <v>47</v>
+      </c>
+      <c r="I50">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C51" s="3">
         <v>10</v>
@@ -1212,13 +1982,28 @@
       <c r="D51" s="3">
         <v>287</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E51">
+        <v>23</v>
+      </c>
+      <c r="F51">
+        <v>218</v>
+      </c>
+      <c r="G51">
+        <v>7</v>
+      </c>
+      <c r="H51">
+        <v>49</v>
+      </c>
+      <c r="I51">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C52" s="3">
         <v>66</v>
@@ -1226,8 +2011,23 @@
       <c r="D52" s="3">
         <v>706</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E52">
+        <v>56</v>
+      </c>
+      <c r="F52">
+        <v>448</v>
+      </c>
+      <c r="G52">
+        <v>126</v>
+      </c>
+      <c r="H52">
+        <v>30</v>
+      </c>
+      <c r="I52">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
         <v>3</v>
       </c>
@@ -1240,13 +2040,28 @@
       <c r="D53" s="3">
         <v>378</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E53">
+        <v>31</v>
+      </c>
+      <c r="F53">
+        <v>60</v>
+      </c>
+      <c r="G53">
+        <v>135</v>
+      </c>
+      <c r="H53">
+        <v>20</v>
+      </c>
+      <c r="I53">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C54" s="3">
         <v>848</v>
@@ -1254,13 +2069,28 @@
       <c r="D54" s="3">
         <v>358</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E54">
+        <v>99</v>
+      </c>
+      <c r="F54">
+        <v>710</v>
+      </c>
+      <c r="G54">
+        <v>109</v>
+      </c>
+      <c r="H54">
+        <v>33</v>
+      </c>
+      <c r="I54">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C55" s="3">
         <v>424</v>
@@ -1268,10 +2098,25 @@
       <c r="D55" s="3">
         <v>630</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E55">
+        <v>97</v>
+      </c>
+      <c r="F55">
+        <v>2</v>
+      </c>
+      <c r="G55">
+        <v>102</v>
+      </c>
+      <c r="H55">
+        <v>37</v>
+      </c>
+      <c r="I55">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A56" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B56" t="s">
         <v>4</v>
@@ -1282,13 +2127,28 @@
       <c r="D56" s="3">
         <v>763</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E56">
+        <v>13</v>
+      </c>
+      <c r="F56">
+        <v>778</v>
+      </c>
+      <c r="G56">
+        <v>198</v>
+      </c>
+      <c r="H56">
+        <v>18</v>
+      </c>
+      <c r="I56">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C57" s="3">
         <v>793</v>
@@ -1296,10 +2156,25 @@
       <c r="D57" s="3">
         <v>189</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E57">
+        <v>53</v>
+      </c>
+      <c r="F57">
+        <v>77</v>
+      </c>
+      <c r="G57">
+        <v>96</v>
+      </c>
+      <c r="H57">
+        <v>37</v>
+      </c>
+      <c r="I57">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A58" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>0</v>
@@ -1310,10 +2185,25 @@
       <c r="D58" s="3">
         <v>110</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E58">
+        <v>52</v>
+      </c>
+      <c r="F58">
+        <v>497</v>
+      </c>
+      <c r="G58">
+        <v>190</v>
+      </c>
+      <c r="H58">
+        <v>36</v>
+      </c>
+      <c r="I58">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A59" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>1</v>
@@ -1324,13 +2214,28 @@
       <c r="D59" s="3">
         <v>63</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E59">
+        <v>14</v>
+      </c>
+      <c r="F59">
+        <v>793</v>
+      </c>
+      <c r="G59">
+        <v>139</v>
+      </c>
+      <c r="H59">
+        <v>46</v>
+      </c>
+      <c r="I59">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A60" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C60" s="3">
         <v>21</v>
@@ -1338,10 +2243,25 @@
       <c r="D60" s="3">
         <v>932</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E60">
+        <v>98</v>
+      </c>
+      <c r="F60">
+        <v>91</v>
+      </c>
+      <c r="G60">
+        <v>125</v>
+      </c>
+      <c r="H60">
+        <v>32</v>
+      </c>
+      <c r="I60">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A61" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>5</v>
@@ -1352,13 +2272,28 @@
       <c r="D61" s="3">
         <v>443</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E61">
+        <v>11</v>
+      </c>
+      <c r="F61">
+        <v>711</v>
+      </c>
+      <c r="G61">
+        <v>164</v>
+      </c>
+      <c r="H61">
+        <v>6</v>
+      </c>
+      <c r="I61">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A62" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C62" s="3">
         <v>678</v>
@@ -1366,13 +2301,28 @@
       <c r="D62" s="3">
         <v>309</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E62">
+        <v>41</v>
+      </c>
+      <c r="F62">
+        <v>631</v>
+      </c>
+      <c r="G62">
+        <v>56</v>
+      </c>
+      <c r="H62">
+        <v>3</v>
+      </c>
+      <c r="I62">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C63" s="3">
         <v>567</v>
@@ -1380,13 +2330,28 @@
       <c r="D63" s="3">
         <v>794</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E63">
+        <v>92</v>
+      </c>
+      <c r="F63">
+        <v>264</v>
+      </c>
+      <c r="G63">
+        <v>96</v>
+      </c>
+      <c r="H63">
+        <v>12</v>
+      </c>
+      <c r="I63">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A64" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="C64" s="3">
         <v>924</v>
@@ -1394,10 +2359,25 @@
       <c r="D64" s="3">
         <v>881</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E64">
+        <v>58</v>
+      </c>
+      <c r="F64">
+        <v>907</v>
+      </c>
+      <c r="G64">
+        <v>36</v>
+      </c>
+      <c r="H64">
+        <v>20</v>
+      </c>
+      <c r="I64">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A65" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>6</v>
@@ -1408,10 +2388,25 @@
       <c r="D65" s="3">
         <v>253</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E65">
+        <v>63</v>
+      </c>
+      <c r="F65">
+        <v>489</v>
+      </c>
+      <c r="G65">
+        <v>115</v>
+      </c>
+      <c r="H65">
+        <v>39</v>
+      </c>
+      <c r="I65">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A66" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B66" t="s">
         <v>4</v>
@@ -1422,10 +2417,25 @@
       <c r="D66" s="3">
         <v>342</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E66">
+        <v>39</v>
+      </c>
+      <c r="F66">
+        <v>130</v>
+      </c>
+      <c r="G66">
+        <v>23</v>
+      </c>
+      <c r="H66">
+        <v>4</v>
+      </c>
+      <c r="I66">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A67" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>1</v>
@@ -1436,10 +2446,25 @@
       <c r="D67" s="3">
         <v>643</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E67">
+        <v>85</v>
+      </c>
+      <c r="F67">
+        <v>129</v>
+      </c>
+      <c r="G67">
+        <v>174</v>
+      </c>
+      <c r="H67">
+        <v>45</v>
+      </c>
+      <c r="I67">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A68" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>2</v>
@@ -1450,10 +2475,25 @@
       <c r="D68" s="3">
         <v>73</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E68">
+        <v>35</v>
+      </c>
+      <c r="F68">
+        <v>814</v>
+      </c>
+      <c r="G68">
+        <v>77</v>
+      </c>
+      <c r="H68">
+        <v>34</v>
+      </c>
+      <c r="I68">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A69" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>3</v>
@@ -1464,13 +2504,28 @@
       <c r="D69" s="3">
         <v>279</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E69">
+        <v>29</v>
+      </c>
+      <c r="F69">
+        <v>31</v>
+      </c>
+      <c r="G69">
+        <v>129</v>
+      </c>
+      <c r="H69">
+        <v>21</v>
+      </c>
+      <c r="I69">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A70" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C70" s="3">
         <v>814</v>
@@ -1478,13 +2533,28 @@
       <c r="D70" s="3">
         <v>660</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E70">
+        <v>33</v>
+      </c>
+      <c r="F70">
+        <v>149</v>
+      </c>
+      <c r="G70">
+        <v>86</v>
+      </c>
+      <c r="H70">
+        <v>27</v>
+      </c>
+      <c r="I70">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A71" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C71" s="3">
         <v>408</v>
@@ -1492,13 +2562,28 @@
       <c r="D71" s="3">
         <v>985</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E71">
+        <v>40</v>
+      </c>
+      <c r="F71">
+        <v>237</v>
+      </c>
+      <c r="G71">
+        <v>80</v>
+      </c>
+      <c r="H71">
+        <v>42</v>
+      </c>
+      <c r="I71">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A72" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C72" s="3">
         <v>681</v>
@@ -1506,10 +2591,25 @@
       <c r="D72" s="3">
         <v>642</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E72">
+        <v>9</v>
+      </c>
+      <c r="F72">
+        <v>427</v>
+      </c>
+      <c r="G72">
+        <v>148</v>
+      </c>
+      <c r="H72">
+        <v>22</v>
+      </c>
+      <c r="I72">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A73" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>6</v>
@@ -1520,8 +2620,23 @@
       <c r="D73" s="3">
         <v>80</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E73">
+        <v>48</v>
+      </c>
+      <c r="F73">
+        <v>264</v>
+      </c>
+      <c r="G73">
+        <v>85</v>
+      </c>
+      <c r="H73">
+        <v>37</v>
+      </c>
+      <c r="I73">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A74" s="1" t="s">
         <v>5</v>
       </c>
@@ -1534,13 +2649,28 @@
       <c r="D74" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E74">
+        <v>88</v>
+      </c>
+      <c r="F74">
+        <v>997</v>
+      </c>
+      <c r="G74">
+        <v>62</v>
+      </c>
+      <c r="H74">
+        <v>21</v>
+      </c>
+      <c r="I74">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A75" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C75" s="3">
         <v>34</v>
@@ -1548,8 +2678,23 @@
       <c r="D75" s="3">
         <v>563</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E75">
+        <v>71</v>
+      </c>
+      <c r="F75">
+        <v>685</v>
+      </c>
+      <c r="G75">
+        <v>133</v>
+      </c>
+      <c r="H75">
+        <v>7</v>
+      </c>
+      <c r="I75">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A76" s="1" t="s">
         <v>5</v>
       </c>
@@ -1562,8 +2707,23 @@
       <c r="D76" s="3">
         <v>392</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E76">
+        <v>18</v>
+      </c>
+      <c r="F76">
+        <v>396</v>
+      </c>
+      <c r="G76">
+        <v>178</v>
+      </c>
+      <c r="H76">
+        <v>11</v>
+      </c>
+      <c r="I76">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A77" s="1" t="s">
         <v>5</v>
       </c>
@@ -1576,8 +2736,23 @@
       <c r="D77" s="3">
         <v>810</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E77">
+        <v>26</v>
+      </c>
+      <c r="F77">
+        <v>241</v>
+      </c>
+      <c r="G77">
+        <v>186</v>
+      </c>
+      <c r="H77">
+        <v>9</v>
+      </c>
+      <c r="I77">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A78" s="1" t="s">
         <v>5</v>
       </c>
@@ -1590,8 +2765,23 @@
       <c r="D78" s="3">
         <v>237</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E78">
+        <v>9</v>
+      </c>
+      <c r="F78">
+        <v>541</v>
+      </c>
+      <c r="G78">
+        <v>17</v>
+      </c>
+      <c r="H78">
+        <v>28</v>
+      </c>
+      <c r="I78">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A79" s="1" t="s">
         <v>5</v>
       </c>
@@ -1604,13 +2794,28 @@
       <c r="D79" s="3">
         <v>656</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E79">
+        <v>5</v>
+      </c>
+      <c r="F79">
+        <v>122</v>
+      </c>
+      <c r="G79">
+        <v>162</v>
+      </c>
+      <c r="H79">
+        <v>12</v>
+      </c>
+      <c r="I79">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A80" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C80" s="3">
         <v>22</v>
@@ -1618,13 +2823,28 @@
       <c r="D80" s="3">
         <v>437</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E80">
+        <v>73</v>
+      </c>
+      <c r="F80">
+        <v>852</v>
+      </c>
+      <c r="G80">
+        <v>160</v>
+      </c>
+      <c r="H80">
+        <v>20</v>
+      </c>
+      <c r="I80">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A81" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C81" s="3">
         <v>960</v>
@@ -1632,13 +2852,28 @@
       <c r="D81" s="3">
         <v>241</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E81">
+        <v>70</v>
+      </c>
+      <c r="F81">
+        <v>595</v>
+      </c>
+      <c r="G81">
+        <v>157</v>
+      </c>
+      <c r="H81">
+        <v>2</v>
+      </c>
+      <c r="I81">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A82" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C82" s="3">
         <v>76</v>
@@ -1646,13 +2881,28 @@
       <c r="D82" s="3">
         <v>33</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E82">
+        <v>87</v>
+      </c>
+      <c r="F82">
+        <v>755</v>
+      </c>
+      <c r="G82">
+        <v>22</v>
+      </c>
+      <c r="H82">
+        <v>48</v>
+      </c>
+      <c r="I82">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A83" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C83" s="3">
         <v>267</v>
@@ -1660,10 +2910,25 @@
       <c r="D83" s="3">
         <v>37</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E83">
+        <v>81</v>
+      </c>
+      <c r="F83">
+        <v>178</v>
+      </c>
+      <c r="G83">
+        <v>118</v>
+      </c>
+      <c r="H83">
+        <v>24</v>
+      </c>
+      <c r="I83">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A84" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>0</v>
@@ -1674,10 +2939,25 @@
       <c r="D84" s="3">
         <v>492</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E84">
+        <v>100</v>
+      </c>
+      <c r="F84">
+        <v>562</v>
+      </c>
+      <c r="G84">
+        <v>137</v>
+      </c>
+      <c r="H84">
+        <v>33</v>
+      </c>
+      <c r="I84">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A85" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>1</v>
@@ -1688,10 +2968,25 @@
       <c r="D85" s="3">
         <v>483</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E85">
+        <v>17</v>
+      </c>
+      <c r="F85">
+        <v>906</v>
+      </c>
+      <c r="G85">
+        <v>87</v>
+      </c>
+      <c r="H85">
+        <v>47</v>
+      </c>
+      <c r="I85">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A86" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>2</v>
@@ -1702,10 +2997,25 @@
       <c r="D86" s="3">
         <v>272</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E86">
+        <v>59</v>
+      </c>
+      <c r="F86">
+        <v>108</v>
+      </c>
+      <c r="G86">
+        <v>71</v>
+      </c>
+      <c r="H86">
+        <v>4</v>
+      </c>
+      <c r="I86">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A87" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>3</v>
@@ -1716,13 +3026,28 @@
       <c r="D87" s="3">
         <v>893</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E87">
+        <v>68</v>
+      </c>
+      <c r="F87">
+        <v>266</v>
+      </c>
+      <c r="G87">
+        <v>57</v>
+      </c>
+      <c r="H87">
+        <v>41</v>
+      </c>
+      <c r="I87">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A88" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C88" s="3">
         <v>695</v>
@@ -1730,13 +3055,28 @@
       <c r="D88" s="3">
         <v>423</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E88">
+        <v>78</v>
+      </c>
+      <c r="F88">
+        <v>446</v>
+      </c>
+      <c r="G88">
+        <v>195</v>
+      </c>
+      <c r="H88">
+        <v>21</v>
+      </c>
+      <c r="I88">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A89" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C89" s="3">
         <v>49</v>
@@ -1744,10 +3084,25 @@
       <c r="D89" s="3">
         <v>130</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E89">
+        <v>18</v>
+      </c>
+      <c r="F89">
+        <v>43</v>
+      </c>
+      <c r="G89">
+        <v>186</v>
+      </c>
+      <c r="H89">
+        <v>10</v>
+      </c>
+      <c r="I89">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A90" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>5</v>
@@ -1758,13 +3113,28 @@
       <c r="D90" s="3">
         <v>764</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E90">
+        <v>56</v>
+      </c>
+      <c r="F90">
+        <v>967</v>
+      </c>
+      <c r="G90">
+        <v>101</v>
+      </c>
+      <c r="H90">
+        <v>14</v>
+      </c>
+      <c r="I90">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A91" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C91" s="3">
         <v>890</v>
@@ -1772,13 +3142,28 @@
       <c r="D91" s="3">
         <v>732</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E91">
+        <v>42</v>
+      </c>
+      <c r="F91">
+        <v>330</v>
+      </c>
+      <c r="G91">
+        <v>186</v>
+      </c>
+      <c r="H91">
+        <v>36</v>
+      </c>
+      <c r="I91">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A92" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C92" s="3">
         <v>473</v>
@@ -1786,10 +3171,25 @@
       <c r="D92" s="3">
         <v>688</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E92">
+        <v>5</v>
+      </c>
+      <c r="F92">
+        <v>743</v>
+      </c>
+      <c r="G92">
+        <v>35</v>
+      </c>
+      <c r="H92">
+        <v>17</v>
+      </c>
+      <c r="I92">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A93" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>6</v>
@@ -1800,10 +3200,25 @@
       <c r="D93" s="3">
         <v>361</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E93">
+        <v>47</v>
+      </c>
+      <c r="F93">
+        <v>627</v>
+      </c>
+      <c r="G93">
+        <v>6</v>
+      </c>
+      <c r="H93">
+        <v>19</v>
+      </c>
+      <c r="I93">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A94" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>0</v>
@@ -1814,10 +3229,25 @@
       <c r="D94" s="3">
         <v>993</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E94">
+        <v>43</v>
+      </c>
+      <c r="F94">
+        <v>361</v>
+      </c>
+      <c r="G94">
+        <v>38</v>
+      </c>
+      <c r="H94">
+        <v>35</v>
+      </c>
+      <c r="I94">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A95" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>1</v>
@@ -1828,10 +3258,25 @@
       <c r="D95" s="3">
         <v>338</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E95">
+        <v>69</v>
+      </c>
+      <c r="F95">
+        <v>139</v>
+      </c>
+      <c r="G95">
+        <v>78</v>
+      </c>
+      <c r="H95">
+        <v>1</v>
+      </c>
+      <c r="I95">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A96" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>2</v>
@@ -1842,10 +3287,25 @@
       <c r="D96" s="3">
         <v>138</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E96">
+        <v>76</v>
+      </c>
+      <c r="F96">
+        <v>466</v>
+      </c>
+      <c r="G96">
+        <v>64</v>
+      </c>
+      <c r="H96">
+        <v>26</v>
+      </c>
+      <c r="I96">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A97" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>3</v>
@@ -1856,13 +3316,28 @@
       <c r="D97" s="3">
         <v>282</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E97">
+        <v>28</v>
+      </c>
+      <c r="F97">
+        <v>861</v>
+      </c>
+      <c r="G97">
+        <v>88</v>
+      </c>
+      <c r="H97">
+        <v>40</v>
+      </c>
+      <c r="I97">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A98" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C98" s="3">
         <v>708</v>
@@ -1870,13 +3345,28 @@
       <c r="D98" s="3">
         <v>886</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E98">
+        <v>57</v>
+      </c>
+      <c r="F98">
+        <v>245</v>
+      </c>
+      <c r="G98">
+        <v>109</v>
+      </c>
+      <c r="H98">
+        <v>6</v>
+      </c>
+      <c r="I98">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A99" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C99" s="3">
         <v>388</v>
@@ -1884,10 +3374,25 @@
       <c r="D99" s="3">
         <v>744</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E99">
+        <v>45</v>
+      </c>
+      <c r="F99">
+        <v>712</v>
+      </c>
+      <c r="G99">
+        <v>186</v>
+      </c>
+      <c r="H99">
+        <v>49</v>
+      </c>
+      <c r="I99">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A100" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>5</v>
@@ -1898,13 +3403,28 @@
       <c r="D100" s="3">
         <v>979</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E100">
+        <v>89</v>
+      </c>
+      <c r="F100">
+        <v>937</v>
+      </c>
+      <c r="G100">
+        <v>117</v>
+      </c>
+      <c r="H100">
+        <v>37</v>
+      </c>
+      <c r="I100">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A101" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C101" s="3">
         <v>814</v>
@@ -1912,10 +3432,25 @@
       <c r="D101" s="3">
         <v>469</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E101">
+        <v>2</v>
+      </c>
+      <c r="F101">
+        <v>707</v>
+      </c>
+      <c r="G101">
+        <v>34</v>
+      </c>
+      <c r="H101">
+        <v>46</v>
+      </c>
+      <c r="I101">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A102" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B102" t="s">
         <v>4</v>
@@ -1926,13 +3461,28 @@
       <c r="D102" s="3">
         <v>343</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E102">
+        <v>69</v>
+      </c>
+      <c r="F102">
+        <v>397</v>
+      </c>
+      <c r="G102">
+        <v>23</v>
+      </c>
+      <c r="H102">
+        <v>50</v>
+      </c>
+      <c r="I102">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A103" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C103" s="3">
         <v>583</v>
@@ -1940,13 +3490,28 @@
       <c r="D103" s="3">
         <v>414</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E103">
+        <v>14</v>
+      </c>
+      <c r="F103">
+        <v>154</v>
+      </c>
+      <c r="G103">
+        <v>101</v>
+      </c>
+      <c r="H103">
+        <v>18</v>
+      </c>
+      <c r="I103">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A104" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C104" s="3">
         <v>560</v>
@@ -1954,10 +3519,25 @@
       <c r="D104" s="3">
         <v>842</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E104">
+        <v>66</v>
+      </c>
+      <c r="F104">
+        <v>438</v>
+      </c>
+      <c r="G104">
+        <v>126</v>
+      </c>
+      <c r="H104">
+        <v>14</v>
+      </c>
+      <c r="I104">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A105" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>6</v>
@@ -1968,10 +3548,25 @@
       <c r="D105" s="3">
         <v>410</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E105">
+        <v>44</v>
+      </c>
+      <c r="F105">
+        <v>716</v>
+      </c>
+      <c r="G105">
+        <v>17</v>
+      </c>
+      <c r="H105">
+        <v>2</v>
+      </c>
+      <c r="I105">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A106" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>2</v>
@@ -1982,10 +3577,25 @@
       <c r="D106" s="3">
         <v>178</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E106">
+        <v>21</v>
+      </c>
+      <c r="F106">
+        <v>775</v>
+      </c>
+      <c r="G106">
+        <v>24</v>
+      </c>
+      <c r="H106">
+        <v>30</v>
+      </c>
+      <c r="I106">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A107" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>3</v>
@@ -1996,13 +3606,28 @@
       <c r="D107" s="3">
         <v>49</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E107">
+        <v>59</v>
+      </c>
+      <c r="F107">
+        <v>320</v>
+      </c>
+      <c r="G107">
+        <v>68</v>
+      </c>
+      <c r="H107">
+        <v>41</v>
+      </c>
+      <c r="I107">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A108" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C108" s="3">
         <v>919</v>
@@ -2010,13 +3635,28 @@
       <c r="D108" s="3">
         <v>324</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E108">
+        <v>17</v>
+      </c>
+      <c r="F108">
+        <v>57</v>
+      </c>
+      <c r="G108">
+        <v>17</v>
+      </c>
+      <c r="H108">
+        <v>4</v>
+      </c>
+      <c r="I108">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A109" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C109" s="3">
         <v>169</v>
@@ -2024,10 +3664,25 @@
       <c r="D109" s="3">
         <v>19</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E109">
+        <v>77</v>
+      </c>
+      <c r="F109">
+        <v>615</v>
+      </c>
+      <c r="G109">
+        <v>116</v>
+      </c>
+      <c r="H109">
+        <v>13</v>
+      </c>
+      <c r="I109">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A110" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>5</v>
@@ -2038,13 +3693,28 @@
       <c r="D110" s="3">
         <v>64</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E110">
+        <v>79</v>
+      </c>
+      <c r="F110">
+        <v>305</v>
+      </c>
+      <c r="G110">
+        <v>129</v>
+      </c>
+      <c r="H110">
+        <v>35</v>
+      </c>
+      <c r="I110">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A111" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C111" s="3">
         <v>366</v>
@@ -2052,8 +3722,23 @@
       <c r="D111" s="3">
         <v>809</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E111">
+        <v>69</v>
+      </c>
+      <c r="F111">
+        <v>66</v>
+      </c>
+      <c r="G111">
+        <v>129</v>
+      </c>
+      <c r="H111">
+        <v>32</v>
+      </c>
+      <c r="I111">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A112" s="1" t="s">
         <v>6</v>
       </c>
@@ -2066,13 +3751,28 @@
       <c r="D112" s="3">
         <v>982</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E112">
+        <v>82</v>
+      </c>
+      <c r="F112">
+        <v>630</v>
+      </c>
+      <c r="G112">
+        <v>144</v>
+      </c>
+      <c r="H112">
+        <v>32</v>
+      </c>
+      <c r="I112">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A113" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C113" s="3">
         <v>23</v>
@@ -2080,8 +3780,23 @@
       <c r="D113" s="3">
         <v>143</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E113">
+        <v>64</v>
+      </c>
+      <c r="F113">
+        <v>171</v>
+      </c>
+      <c r="G113">
+        <v>107</v>
+      </c>
+      <c r="H113">
+        <v>44</v>
+      </c>
+      <c r="I113">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A114" s="1" t="s">
         <v>6</v>
       </c>
@@ -2094,8 +3809,23 @@
       <c r="D114" s="3">
         <v>188</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E114">
+        <v>87</v>
+      </c>
+      <c r="F114">
+        <v>812</v>
+      </c>
+      <c r="G114">
+        <v>162</v>
+      </c>
+      <c r="H114">
+        <v>49</v>
+      </c>
+      <c r="I114">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A115" s="1" t="s">
         <v>6</v>
       </c>
@@ -2108,8 +3838,23 @@
       <c r="D115" s="3">
         <v>772</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E115">
+        <v>24</v>
+      </c>
+      <c r="F115">
+        <v>452</v>
+      </c>
+      <c r="G115">
+        <v>27</v>
+      </c>
+      <c r="H115">
+        <v>30</v>
+      </c>
+      <c r="I115">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A116" s="1" t="s">
         <v>6</v>
       </c>
@@ -2122,8 +3867,23 @@
       <c r="D116" s="3">
         <v>917</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E116">
+        <v>46</v>
+      </c>
+      <c r="F116">
+        <v>586</v>
+      </c>
+      <c r="G116">
+        <v>83</v>
+      </c>
+      <c r="H116">
+        <v>39</v>
+      </c>
+      <c r="I116">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A117" s="1" t="s">
         <v>6</v>
       </c>
@@ -2136,13 +3896,28 @@
       <c r="D117" s="3">
         <v>736</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E117">
+        <v>85</v>
+      </c>
+      <c r="F117">
+        <v>536</v>
+      </c>
+      <c r="G117">
+        <v>181</v>
+      </c>
+      <c r="H117">
+        <v>24</v>
+      </c>
+      <c r="I117">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A118" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C118" s="3">
         <v>833</v>
@@ -2150,13 +3925,28 @@
       <c r="D118" s="3">
         <v>199</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E118">
+        <v>50</v>
+      </c>
+      <c r="F118">
+        <v>113</v>
+      </c>
+      <c r="G118">
+        <v>158</v>
+      </c>
+      <c r="H118">
+        <v>36</v>
+      </c>
+      <c r="I118">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A119" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C119" s="3">
         <v>407</v>
@@ -2164,8 +3954,23 @@
       <c r="D119" s="3">
         <v>575</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E119">
+        <v>82</v>
+      </c>
+      <c r="F119">
+        <v>941</v>
+      </c>
+      <c r="G119">
+        <v>198</v>
+      </c>
+      <c r="H119">
+        <v>18</v>
+      </c>
+      <c r="I119">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A120" s="1" t="s">
         <v>6</v>
       </c>
@@ -2178,19 +3983,49 @@
       <c r="D120" s="3">
         <v>922</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E120">
+        <v>10</v>
+      </c>
+      <c r="F120">
+        <v>248</v>
+      </c>
+      <c r="G120">
+        <v>69</v>
+      </c>
+      <c r="H120">
+        <v>4</v>
+      </c>
+      <c r="I120">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A121" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C121" s="3">
         <v>319</v>
       </c>
       <c r="D121" s="3">
         <v>966</v>
+      </c>
+      <c r="E121">
+        <v>83</v>
+      </c>
+      <c r="F121">
+        <v>881</v>
+      </c>
+      <c r="G121">
+        <v>171</v>
+      </c>
+      <c r="H121">
+        <v>43</v>
+      </c>
+      <c r="I121">
+        <v>440</v>
       </c>
     </row>
   </sheetData>
